--- a/Big Tech/Apple.xlsx
+++ b/Big Tech/Apple.xlsx
@@ -5,35 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB5A9AE-59AC-6A4F-88EC-27C772D4BFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B58778-97E4-A444-AD52-B20498F955CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -575,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -972,18 +954,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,12 +988,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1033,7 +997,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1045,6 +1008,25 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2540,13 +2522,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>178.49</v>
+    <v>176.15</v>
     <v>124.17</v>
-    <v>1.298</v>
-    <v>2.54</v>
-    <v>1.5644000000000002E-2</v>
-    <v>5.0000000000000001E-3</v>
-    <v>3.0320000000000001E-5</v>
+    <v>1.2977000000000001</v>
+    <v>0.9</v>
+    <v>5.496E-3</v>
+    <v>-0.09</v>
+    <v>-5.4659999999999995E-4</v>
     <v>USD</v>
     <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
     <v>164000</v>
@@ -2554,25 +2536,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>165</v>
+    <v>164.95840000000001</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45016.999991712502</v>
+    <v>45022.999997082814</v>
     <v>0</v>
-    <v>161.91</v>
-    <v>2609039000000</v>
+    <v>162</v>
+    <v>2605242000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>162.44</v>
-    <v>27.532900000000001</v>
-    <v>162.36000000000001</v>
-    <v>164.9</v>
-    <v>164.905</v>
+    <v>162.43</v>
+    <v>27.770299999999999</v>
+    <v>163.76</v>
+    <v>164.66</v>
+    <v>164.57</v>
     <v>15821950000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>68749792</v>
-    <v>64109064</v>
+    <v>45390123</v>
+    <v>64789942</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -3160,10 +3142,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ29" sqref="AQ29"/>
+      <selection pane="bottomRight" activeCell="AO99" sqref="AO99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5382,15 +5364,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>6.6164183116593289</v>
+        <v>6.6067892718751899</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>26.141889522359048</v>
-      </c>
-      <c r="AV16" s="64">
+        <v>26.103844573810406</v>
+      </c>
+      <c r="AV16" s="57">
         <f>AU101/AM106</f>
-        <v>23.411421085218453</v>
+        <v>23.377349855980189</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -13517,10 +13499,10 @@
       <c r="AM83" s="1">
         <v>1484000000</v>
       </c>
-      <c r="AT83" s="32" t="s">
+      <c r="AT83" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="AU83" s="33"/>
+      <c r="AU83" s="59"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13640,10 +13622,10 @@
       <c r="AM84" s="1">
         <v>9448000000</v>
       </c>
-      <c r="AT84" s="34" t="s">
+      <c r="AT84" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="AU84" s="35"/>
+      <c r="AU84" s="61"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14141,10 +14123,10 @@
       <c r="AM88" s="1">
         <v>-10708000000</v>
       </c>
-      <c r="AT88" s="36" t="s">
+      <c r="AT88" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AU88" s="37">
+      <c r="AU88" s="33">
         <f>AU85/(AU86+AU87)</f>
         <v>2.4410963695874872E-2</v>
       </c>
@@ -14557,10 +14539,10 @@
       <c r="AM91" s="1">
         <v>-76923000000</v>
       </c>
-      <c r="AT91" s="36" t="s">
+      <c r="AT91" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="AU91" s="37">
+      <c r="AU91" s="33">
         <f>AU89/AU90</f>
         <v>0.16204461684424407</v>
       </c>
@@ -14683,10 +14665,10 @@
       <c r="AM92" s="1">
         <v>67363000000</v>
       </c>
-      <c r="AT92" s="38" t="s">
+      <c r="AT92" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="AU92" s="39">
+      <c r="AU92" s="35">
         <f>AU88*(1-AU91)</f>
         <v>2.0455298436978075E-2</v>
       </c>
@@ -14809,10 +14791,10 @@
       <c r="AM93" s="1">
         <v>-1780000000</v>
       </c>
-      <c r="AT93" s="34" t="s">
+      <c r="AT93" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="AU93" s="35"/>
+      <c r="AU93" s="61"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14935,7 +14917,7 @@
       <c r="AT94" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AU94" s="40">
+      <c r="AU94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -15060,9 +15042,9 @@
       <c r="AT95" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="AU95" s="41" cm="1">
+      <c r="AU95" s="37" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.298</v>
+        <v>1.2977000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15186,7 +15168,7 @@
       <c r="AT96" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="AU96" s="40">
+      <c r="AU96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15308,12 +15290,12 @@
       <c r="AM97" s="1">
         <v>-89402000000</v>
       </c>
-      <c r="AT97" s="38" t="s">
+      <c r="AT97" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AU97" s="39">
+      <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.6828900000000009E-2</v>
+        <v>9.6815985000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15434,10 +15416,10 @@
       <c r="AM98" s="1">
         <v>-14841000000</v>
       </c>
-      <c r="AT98" s="34" t="s">
+      <c r="AT98" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="AU98" s="35"/>
+      <c r="AU98" s="61"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15683,12 +15665,12 @@
       <c r="AM100" s="10">
         <v>-110749000000</v>
       </c>
-      <c r="AT100" s="36" t="s">
+      <c r="AT100" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="AU100" s="37">
+      <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>4.3995693831097929E-2</v>
+        <v>4.4056990193045861E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15812,9 +15794,9 @@
       <c r="AT101" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="AU101" s="42" cm="1">
+      <c r="AU101" s="38" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2609039000000</v>
+        <v>2605242000000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15935,12 +15917,12 @@
       <c r="AM102" s="10">
         <v>-10952000000</v>
       </c>
-      <c r="AT102" s="36" t="s">
+      <c r="AT102" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AU102" s="37">
+      <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.95600430616890208</v>
+        <v>0.95594300980695412</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16061,12 +16043,12 @@
       <c r="AM103" s="1">
         <v>35929000000</v>
       </c>
-      <c r="AT103" s="38" t="s">
+      <c r="AT103" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="AU103" s="43">
+      <c r="AU103" s="39">
         <f>AU99+AU101</f>
-        <v>2729108000000</v>
+        <v>2725311000000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16187,10 +16169,10 @@
       <c r="AM104" s="11">
         <v>24977000000</v>
       </c>
-      <c r="AT104" s="34" t="s">
+      <c r="AT104" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="AU104" s="35"/>
+      <c r="AU104" s="61"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16356,7 +16338,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.3468790408855029E-2</v>
+        <v>9.3451762980958697E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16477,33 +16459,33 @@
       <c r="AM106" s="1">
         <v>111443000000</v>
       </c>
-      <c r="AN106" s="44">
+      <c r="AN106" s="40">
         <f>AM106*(1+$AU$106)</f>
         <v>117391625521.45534</v>
       </c>
-      <c r="AO106" s="44">
+      <c r="AO106" s="40">
         <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
         <v>123657777900.53754</v>
       </c>
-      <c r="AP106" s="44">
+      <c r="AP106" s="40">
         <f t="shared" si="9"/>
         <v>130258406145.87904</v>
       </c>
-      <c r="AQ106" s="44">
+      <c r="AQ106" s="40">
         <f t="shared" si="9"/>
         <v>137211363973.49918</v>
       </c>
-      <c r="AR106" s="44">
+      <c r="AR106" s="40">
         <f t="shared" si="9"/>
         <v>144535458098.44604</v>
       </c>
-      <c r="AS106" s="45" t="s">
+      <c r="AS106" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="AT106" s="46" t="s">
+      <c r="AT106" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="AU106" s="47">
+      <c r="AU106" s="43">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>5.3378189042428303E-2</v>
       </c>
@@ -16548,151 +16530,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="45"/>
-      <c r="AO107" s="45"/>
-      <c r="AP107" s="45"/>
-      <c r="AQ107" s="45"/>
-      <c r="AR107" s="48">
+      <c r="AN107" s="41"/>
+      <c r="AO107" s="41"/>
+      <c r="AP107" s="41"/>
+      <c r="AQ107" s="41"/>
+      <c r="AR107" s="44">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2163742687233.8491</v>
-      </c>
-      <c r="AS107" s="49" t="s">
+        <v>2164280919866.4163</v>
+      </c>
+      <c r="AS107" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="AT107" s="50" t="s">
+      <c r="AT107" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="AU107" s="51">
+      <c r="AU107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="48">
+      <c r="AN108" s="44">
         <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
         <v>117391625521.45534</v>
       </c>
-      <c r="AO108" s="48">
+      <c r="AO108" s="44">
         <f t="shared" si="10"/>
         <v>123657777900.53754</v>
       </c>
-      <c r="AP108" s="48">
+      <c r="AP108" s="44">
         <f t="shared" si="10"/>
         <v>130258406145.87904</v>
       </c>
-      <c r="AQ108" s="48">
+      <c r="AQ108" s="44">
         <f>AQ107+AQ106</f>
         <v>137211363973.49918</v>
       </c>
-      <c r="AR108" s="48">
+      <c r="AR108" s="44">
         <f>AR107+AR106</f>
-        <v>2308278145332.2949</v>
-      </c>
-      <c r="AS108" s="49" t="s">
+        <v>2308816377964.8623</v>
+      </c>
+      <c r="AS108" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="AT108" s="52" t="s">
+      <c r="AT108" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AU108" s="53">
+      <c r="AU108" s="49">
         <f>AU105</f>
-        <v>9.3468790408855029E-2</v>
+        <v>9.3451762980958697E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="54" t="s">
+      <c r="AN109" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="AO109" s="55"/>
+      <c r="AO109" s="63"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="56" t="s">
+      <c r="AN110" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="AO110" s="42">
+      <c r="AO110" s="38">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>1882960942168.925</v>
+        <v>1883435766601.6802</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="56" t="s">
+      <c r="AN111" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="AO111" s="42">
+      <c r="AO111" s="38">
         <f>AM40</f>
         <v>48304000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="56" t="s">
+      <c r="AN112" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AO112" s="42">
+      <c r="AO112" s="38">
         <f>AU99</f>
         <v>120069000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="56" t="s">
+      <c r="AN113" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AO113" s="42">
+      <c r="AO113" s="38">
         <f>AO110+AO111-AO112</f>
-        <v>1811195942168.925</v>
+        <v>1811670766601.6802</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="56" t="s">
+      <c r="AN114" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="AO114" s="57">
+      <c r="AO114" s="51">
         <f>AM34*(1+(5*AS16))</f>
         <v>12320235482.186365</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="58" t="s">
+      <c r="AN115" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AO115" s="59">
+      <c r="AO115" s="64">
         <f>AO113/AO114</f>
-        <v>147.00984772472123</v>
+        <v>147.04838793228802</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="56" t="s">
+      <c r="AN116" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="AO116" s="60" cm="1">
+      <c r="AO116" s="53" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>164.905</v>
+        <v>164.57</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="61" t="s">
+      <c r="AN117" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="AO117" s="62">
+      <c r="AO117" s="55">
         <f>(AO115/AO116)-1</f>
-        <v>-0.10851794836590023</v>
+        <v>-0.10646905309419685</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="61" t="s">
+      <c r="AN118" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AO118" s="63" t="str">
+      <c r="AO118" s="56" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/AAPL" display="ROIC.AI | AAPL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
